--- a/data/trans_dic/P6904-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 48,82</t>
+          <t>23,67; 47,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,75; 58,06</t>
+          <t>29,58; 56,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 59,79</t>
+          <t>29,43; 59,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,86; 58,85</t>
+          <t>30,16; 60,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,1; 48,68</t>
+          <t>21,33; 48,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,92; 53,53</t>
+          <t>22,47; 53,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,52; 65,48</t>
+          <t>36,07; 65,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,54; 58,63</t>
+          <t>36,25; 59,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,62; 44,77</t>
+          <t>25,29; 44,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 50,51</t>
+          <t>30,09; 50,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,93; 58,55</t>
+          <t>35,91; 57,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,53; 54,95</t>
+          <t>37,37; 55,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 38,35</t>
+          <t>11,37; 38,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 66,23</t>
+          <t>30,75; 65,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 73,76</t>
+          <t>35,08; 71,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,02; 56,32</t>
+          <t>27,04; 56,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,83; 59,76</t>
+          <t>31,02; 59,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 46,35</t>
+          <t>7,53; 44,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,8; 80,01</t>
+          <t>44,14; 79,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 62,24</t>
+          <t>32,65; 59,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,1; 44,83</t>
+          <t>23,69; 44,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 51,91</t>
+          <t>25,03; 52,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,23; 71,54</t>
+          <t>45,13; 71,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,53; 54,97</t>
+          <t>34,91; 54,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,75; 73,53</t>
+          <t>54,31; 73,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,28; 64,71</t>
+          <t>41,69; 64,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,49; 69,38</t>
+          <t>44,74; 68,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,55; 76,18</t>
+          <t>49,0; 76,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,21; 77,6</t>
+          <t>27,49; 80,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,17; 77,33</t>
+          <t>41,38; 76,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,42; 90,77</t>
+          <t>35,64; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,62; 93,04</t>
+          <t>61,58; 93,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,83; 72,0</t>
+          <t>54,4; 72,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,25; 64,71</t>
+          <t>45,36; 64,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,49; 70,88</t>
+          <t>47,61; 72,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,47; 77,37</t>
+          <t>55,33; 77,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,9; 65,69</t>
+          <t>51,49; 65,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 71,12</t>
+          <t>53,62; 71,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,47; 72,37</t>
+          <t>56,26; 72,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,21; 75,99</t>
+          <t>57,13; 76,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,21; 72,08</t>
+          <t>44,17; 71,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,59; 68,3</t>
+          <t>45,05; 68,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,6; 80,7</t>
+          <t>61,04; 80,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 69,19</t>
+          <t>52,1; 69,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,61; 64,26</t>
+          <t>52,22; 64,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 67,92</t>
+          <t>52,47; 66,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61,33; 73,62</t>
+          <t>60,86; 73,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>58,28; 70,77</t>
+          <t>57,84; 70,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,2; 62,64</t>
+          <t>37,43; 62,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,09; 72,21</t>
+          <t>39,38; 72,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,88; 75,57</t>
+          <t>51,54; 75,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,51; 87,82</t>
+          <t>64,35; 88,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,13; 74,26</t>
+          <t>51,13; 74,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,29; 83,42</t>
+          <t>55,29; 84,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,63; 86,96</t>
+          <t>62,56; 86,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71,26; 92,16</t>
+          <t>71,02; 92,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,62; 64,96</t>
+          <t>48,05; 64,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,95; 74,9</t>
+          <t>51,68; 74,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,48; 77,68</t>
+          <t>59,88; 76,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 89,64</t>
+          <t>72,29; 89,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,51; 57,21</t>
+          <t>47,36; 56,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,93; 61,16</t>
+          <t>49,21; 60,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54,02; 65,28</t>
+          <t>54,1; 64,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,92; 67,08</t>
+          <t>55,63; 67,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,66; 58,32</t>
+          <t>45,5; 59,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,7; 58,16</t>
+          <t>44,37; 58,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,78; 73,25</t>
+          <t>60,83; 73,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,4; 74,23</t>
+          <t>59,54; 74,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,48; 56,12</t>
+          <t>48,19; 55,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>49,01; 58,39</t>
+          <t>49,01; 58,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>58,22; 66,58</t>
+          <t>58,35; 66,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>58,97; 69,1</t>
+          <t>59,49; 69,17</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores musculares</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22979</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24091</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20419</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20584</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15844</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15285</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23543</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28078</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38823</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39376</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43961</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>48662</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15404; 30994</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16403; 31467</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13805; 27699</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13817; 27774</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9952; 22637</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9372; 22176</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16569; 30211</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21491; 35009</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28260; 49747</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29236; 49333</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33339; 52922</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39280; 58523</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9292</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17444</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16488</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20937</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18782</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18582</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20200</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28073</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23337</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35070</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41136</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4817; 16188</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10891; 23367</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10606; 21559</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13729; 28836</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12909; 24932</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2005; 11902</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12974; 23287</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13766; 25122</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19890; 37531</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15527; 32540</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26909; 42848</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32445; 50476</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>64640</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42129</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38455</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37313</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9017</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20194</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6674</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14290</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>73657</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62323</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45129</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51603</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>54327; 73855</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33091; 50816</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29928; 45828</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28679; 44685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4477; 13106</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13955; 25844</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3410; 9569</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10985; 16662</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63272; 84378</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51303; 73266</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36403; 55193</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42253; 58846</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>118145</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>72113</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88641</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>89951</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28756</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38344</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60420</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65115</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146901</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>110457</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>149061</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>155065</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>103401; 131857</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>61765; 82029</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77003; 99303</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>76102; 101277</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22062; 35801</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30615; 46706</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51318; 67834</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55098; 73594</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>130964; 162374</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>96096; 122615</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134464; 162736</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>138218; 168559</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31679</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22664</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44437</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39991</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41517</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30667</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36144</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>103044</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>73196</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>53331</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>80581</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>143034</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23959; 39763</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15754; 29073</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35612; 52348</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32929; 45254</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33550; 48993</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24145; 36724</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29607; 41129</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>90370; 117318</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>62288; 84181</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>43242; 62546</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>69715; 89586</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128978; 159932</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>246734</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>178441</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>208440</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>208774</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>113916</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>110383</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>230727</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>360650</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>288825</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>353802</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>439501</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>223693; 268198</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>160143; 197915</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>189336; 227259</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>188867; 227692</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>100160; 129872</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>94801; 124703</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>131567; 159313</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>209752; 262226</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>333659; 386773</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>264194; 312849</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>330461; 377016</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>411545; 478538</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6904-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
